--- a/pred_ohlcv/54/2019-10-16 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-16 XMR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -423,9 +428,12 @@
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>60640</v>
+        <v>60637.5</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -449,9 +457,12 @@
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>60644.16666666666</v>
+        <v>60640</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -475,9 +486,12 @@
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>60648.33333333334</v>
+        <v>60644.16666666666</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,10 +503,10 @@
         <v>60650</v>
       </c>
       <c r="C5" t="n">
-        <v>60700</v>
+        <v>60650</v>
       </c>
       <c r="D5" t="n">
-        <v>60700</v>
+        <v>60650</v>
       </c>
       <c r="E5" t="n">
         <v>60650</v>
@@ -501,9 +515,12 @@
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>60653.33333333334</v>
+        <v>60648.33333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>60650</v>
+      </c>
+      <c r="C6" t="n">
         <v>60700</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60500</v>
       </c>
       <c r="D6" t="n">
         <v>60700</v>
       </c>
       <c r="E6" t="n">
-        <v>60400</v>
+        <v>60650</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>60655</v>
+        <v>60653.33333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="C7" t="n">
         <v>60500</v>
       </c>
       <c r="D7" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="E7" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="F7" t="n">
-        <v>41.8262</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>60653.33333333334</v>
+        <v>60655</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>60500</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>41.8262</v>
       </c>
       <c r="G8" t="n">
-        <v>60651.66666666666</v>
+        <v>60653.33333333334</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="C9" t="n">
-        <v>60450</v>
+        <v>60500</v>
       </c>
       <c r="D9" t="n">
-        <v>61400</v>
+        <v>60500</v>
       </c>
       <c r="E9" t="n">
-        <v>60400</v>
+        <v>60500</v>
       </c>
       <c r="F9" t="n">
-        <v>34103.92198485342</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>60650.83333333334</v>
+        <v>60651.66666666666</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>60550</v>
+        <v>60600</v>
       </c>
       <c r="C10" t="n">
-        <v>60400</v>
+        <v>60450</v>
       </c>
       <c r="D10" t="n">
-        <v>60550</v>
+        <v>61400</v>
       </c>
       <c r="E10" t="n">
         <v>60400</v>
       </c>
       <c r="F10" t="n">
-        <v>903.058</v>
+        <v>34103.92198485342</v>
       </c>
       <c r="G10" t="n">
         <v>60650.83333333334</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,21 +677,24 @@
         <v>60550</v>
       </c>
       <c r="C11" t="n">
-        <v>60550</v>
+        <v>60400</v>
       </c>
       <c r="D11" t="n">
         <v>60550</v>
       </c>
       <c r="E11" t="n">
-        <v>60550</v>
+        <v>60400</v>
       </c>
       <c r="F11" t="n">
-        <v>0.966</v>
+        <v>903.058</v>
       </c>
       <c r="G11" t="n">
-        <v>60653.33333333334</v>
+        <v>60650.83333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="C12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="D12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="E12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="F12" t="n">
-        <v>12.2482</v>
+        <v>0.966</v>
       </c>
       <c r="G12" t="n">
         <v>60653.33333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="C13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="D13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="E13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>12.2482</v>
       </c>
       <c r="G13" t="n">
-        <v>60651.66666666666</v>
+        <v>60653.33333333334</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="C14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="D14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="E14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>60654.16666666666</v>
+        <v>60651.66666666666</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="C15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="D15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="E15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4095</v>
+        <v>0.3</v>
       </c>
       <c r="G15" t="n">
-        <v>60660</v>
+        <v>60654.16666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>61050</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6001</v>
+        <v>0.4095</v>
       </c>
       <c r="G16" t="n">
-        <v>60665.83333333334</v>
+        <v>60660</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>61100</v>
+        <v>61050</v>
       </c>
       <c r="C17" t="n">
-        <v>61100</v>
+        <v>61050</v>
       </c>
       <c r="D17" t="n">
-        <v>61550</v>
+        <v>61050</v>
       </c>
       <c r="E17" t="n">
         <v>61050</v>
       </c>
       <c r="F17" t="n">
-        <v>114.7688</v>
+        <v>0.6001</v>
       </c>
       <c r="G17" t="n">
-        <v>60672.5</v>
+        <v>60665.83333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="C18" t="n">
-        <v>61350</v>
+        <v>61100</v>
       </c>
       <c r="D18" t="n">
-        <v>61400</v>
+        <v>61550</v>
       </c>
       <c r="E18" t="n">
-        <v>60600</v>
+        <v>61050</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>114.7688</v>
       </c>
       <c r="G18" t="n">
-        <v>60683.33333333334</v>
+        <v>60672.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>61550</v>
+        <v>60600</v>
       </c>
       <c r="C19" t="n">
-        <v>61800</v>
+        <v>61350</v>
       </c>
       <c r="D19" t="n">
-        <v>61800</v>
+        <v>61400</v>
       </c>
       <c r="E19" t="n">
-        <v>61550</v>
+        <v>60600</v>
       </c>
       <c r="F19" t="n">
-        <v>138.28704158576</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>60701.66666666666</v>
+        <v>60683.33333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="C20" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="D20" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="E20" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8080000000000001</v>
+        <v>138.28704158576</v>
       </c>
       <c r="G20" t="n">
-        <v>60717.5</v>
+        <v>60701.66666666666</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="C21" t="n">
-        <v>61900</v>
+        <v>61650</v>
       </c>
       <c r="D21" t="n">
-        <v>61900</v>
+        <v>61650</v>
       </c>
       <c r="E21" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="F21" t="n">
-        <v>122.4285</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>60737.5</v>
+        <v>60717.5</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>61700</v>
+      </c>
+      <c r="C22" t="n">
         <v>61900</v>
       </c>
-      <c r="C22" t="n">
-        <v>61950</v>
-      </c>
       <c r="D22" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="E22" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="F22" t="n">
-        <v>91.858704681194</v>
+        <v>122.4285</v>
       </c>
       <c r="G22" t="n">
-        <v>60758.33333333334</v>
+        <v>60737.5</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>61900</v>
       </c>
       <c r="C23" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D23" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E23" t="n">
         <v>61900</v>
       </c>
       <c r="F23" t="n">
-        <v>1.752</v>
+        <v>91.858704681194</v>
       </c>
       <c r="G23" t="n">
-        <v>60779.16666666666</v>
+        <v>60758.33333333334</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="C24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="D24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="E24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="F24" t="n">
-        <v>0.016193548387</v>
+        <v>1.752</v>
       </c>
       <c r="G24" t="n">
-        <v>60800.83333333334</v>
+        <v>60779.16666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>62000</v>
       </c>
       <c r="C25" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="D25" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="E25" t="n">
         <v>62000</v>
       </c>
       <c r="F25" t="n">
-        <v>21.3243</v>
+        <v>0.016193548387</v>
       </c>
       <c r="G25" t="n">
-        <v>60824.16666666666</v>
+        <v>60800.83333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C26" t="n">
         <v>62100</v>
       </c>
-      <c r="C26" t="n">
-        <v>62500</v>
-      </c>
       <c r="D26" t="n">
-        <v>62500</v>
+        <v>62100</v>
       </c>
       <c r="E26" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>21.3243</v>
       </c>
       <c r="G26" t="n">
-        <v>60854.16666666666</v>
+        <v>60824.16666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>62400</v>
+        <v>62100</v>
       </c>
       <c r="C27" t="n">
         <v>62500</v>
@@ -1067,15 +1147,18 @@
         <v>62500</v>
       </c>
       <c r="E27" t="n">
-        <v>62400</v>
+        <v>62100</v>
       </c>
       <c r="F27" t="n">
-        <v>18.4972</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>60884.16666666666</v>
+        <v>60854.16666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,7 +1170,7 @@
         <v>62400</v>
       </c>
       <c r="C28" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="D28" t="n">
         <v>62500</v>
@@ -1096,12 +1179,15 @@
         <v>62400</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>18.4972</v>
       </c>
       <c r="G28" t="n">
-        <v>60912.5</v>
+        <v>60884.16666666666</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>62400</v>
       </c>
       <c r="C29" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="D29" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="E29" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="F29" t="n">
-        <v>23.9828</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>60939.16666666666</v>
+        <v>60912.5</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="C30" t="n">
         <v>62300</v>
       </c>
       <c r="D30" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="E30" t="n">
         <v>62300</v>
       </c>
       <c r="F30" t="n">
-        <v>22.821027287319</v>
+        <v>23.9828</v>
       </c>
       <c r="G30" t="n">
-        <v>60965.83333333334</v>
+        <v>60939.16666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="C31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="D31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="E31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8080000000000001</v>
+        <v>22.821027287319</v>
       </c>
       <c r="G31" t="n">
-        <v>60991.66666666666</v>
+        <v>60965.83333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="C32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="D32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="E32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>61021.66666666666</v>
+        <v>60991.66666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="C33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="D33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="E33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="F33" t="n">
-        <v>69</v>
+        <v>7.5</v>
       </c>
       <c r="G33" t="n">
-        <v>61050.83333333334</v>
+        <v>61021.66666666666</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>62450</v>
       </c>
       <c r="F34" t="n">
-        <v>14.8128</v>
+        <v>69</v>
       </c>
       <c r="G34" t="n">
-        <v>61080</v>
+        <v>61050.83333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>62450</v>
       </c>
       <c r="C35" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="D35" t="n">
         <v>62450</v>
       </c>
       <c r="E35" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="F35" t="n">
-        <v>11.2203</v>
+        <v>14.8128</v>
       </c>
       <c r="G35" t="n">
-        <v>61108.33333333334</v>
+        <v>61080</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>62250</v>
+        <v>62450</v>
       </c>
       <c r="C36" t="n">
         <v>62400</v>
       </c>
       <c r="D36" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="E36" t="n">
-        <v>62250</v>
+        <v>62400</v>
       </c>
       <c r="F36" t="n">
-        <v>7.67</v>
+        <v>11.2203</v>
       </c>
       <c r="G36" t="n">
-        <v>61136.66666666666</v>
+        <v>61108.33333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>62400</v>
+        <v>62250</v>
       </c>
       <c r="C37" t="n">
         <v>62400</v>
@@ -1327,15 +1437,18 @@
         <v>62400</v>
       </c>
       <c r="E37" t="n">
-        <v>62400</v>
+        <v>62250</v>
       </c>
       <c r="F37" t="n">
-        <v>15</v>
+        <v>7.67</v>
       </c>
       <c r="G37" t="n">
-        <v>61165</v>
+        <v>61136.66666666666</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="C38" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="D38" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="E38" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="F38" t="n">
-        <v>197.4966</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>61186.66666666666</v>
+        <v>61165</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>62300</v>
       </c>
       <c r="C39" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="D39" t="n">
         <v>62300</v>
       </c>
       <c r="E39" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="F39" t="n">
-        <v>22.5</v>
+        <v>197.4966</v>
       </c>
       <c r="G39" t="n">
-        <v>61211.66666666666</v>
+        <v>61186.66666666666</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,10 +1515,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>62300</v>
+      </c>
+      <c r="C40" t="n">
         <v>62200</v>
-      </c>
-      <c r="C40" t="n">
-        <v>62300</v>
       </c>
       <c r="D40" t="n">
         <v>62300</v>
@@ -1408,12 +1527,15 @@
         <v>62200</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G40" t="n">
-        <v>61238.33333333334</v>
+        <v>61211.66666666666</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="C41" t="n">
         <v>62300</v>
@@ -1431,15 +1553,18 @@
         <v>62300</v>
       </c>
       <c r="E41" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="F41" t="n">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>61265</v>
+        <v>61238.33333333334</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>62300</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="G42" t="n">
-        <v>61291.66666666666</v>
+        <v>61265</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>62300</v>
       </c>
       <c r="F43" t="n">
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>61319.16666666666</v>
+        <v>61291.66666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>62300</v>
       </c>
       <c r="F44" t="n">
-        <v>2.159</v>
+        <v>22.5</v>
       </c>
       <c r="G44" t="n">
-        <v>61346.66666666666</v>
+        <v>61319.16666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>62650</v>
+        <v>62300</v>
       </c>
       <c r="C45" t="n">
-        <v>62700</v>
+        <v>62300</v>
       </c>
       <c r="D45" t="n">
-        <v>62700</v>
+        <v>62300</v>
       </c>
       <c r="E45" t="n">
-        <v>62650</v>
+        <v>62300</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>2.159</v>
       </c>
       <c r="G45" t="n">
-        <v>61380.83333333334</v>
+        <v>61346.66666666666</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>62700</v>
+        <v>62650</v>
       </c>
       <c r="C46" t="n">
         <v>62700</v>
@@ -1561,15 +1698,18 @@
         <v>62700</v>
       </c>
       <c r="E46" t="n">
-        <v>62700</v>
+        <v>62650</v>
       </c>
       <c r="F46" t="n">
-        <v>7.3046</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>61415</v>
+        <v>61380.83333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="C47" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="D47" t="n">
-        <v>63000</v>
+        <v>62700</v>
       </c>
       <c r="E47" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F47" t="n">
-        <v>125.1333</v>
+        <v>7.3046</v>
       </c>
       <c r="G47" t="n">
-        <v>61450.83333333334</v>
+        <v>61415</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>62800</v>
       </c>
       <c r="C48" t="n">
-        <v>62350</v>
+        <v>62800</v>
       </c>
       <c r="D48" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E48" t="n">
         <v>62800</v>
       </c>
-      <c r="E48" t="n">
-        <v>62300</v>
-      </c>
       <c r="F48" t="n">
-        <v>135.7442</v>
+        <v>125.1333</v>
       </c>
       <c r="G48" t="n">
-        <v>61479.16666666666</v>
+        <v>61450.83333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C49" t="n">
         <v>62350</v>
       </c>
-      <c r="C49" t="n">
-        <v>62700</v>
-      </c>
       <c r="D49" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E49" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="F49" t="n">
-        <v>25.2082</v>
+        <v>135.7442</v>
       </c>
       <c r="G49" t="n">
-        <v>61513.33333333334</v>
+        <v>61479.16666666666</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>62500</v>
+        <v>62350</v>
       </c>
       <c r="C50" t="n">
-        <v>62400</v>
+        <v>62700</v>
       </c>
       <c r="D50" t="n">
-        <v>62500</v>
+        <v>62700</v>
       </c>
       <c r="E50" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="F50" t="n">
-        <v>214.4083</v>
+        <v>25.2082</v>
       </c>
       <c r="G50" t="n">
-        <v>61542.5</v>
+        <v>61513.33333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>62350</v>
+        <v>62500</v>
       </c>
       <c r="C51" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="D51" t="n">
-        <v>62350</v>
+        <v>62500</v>
       </c>
       <c r="E51" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1591</v>
+        <v>214.4083</v>
       </c>
       <c r="G51" t="n">
-        <v>61570.83333333334</v>
+        <v>61542.5</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>62350</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2256</v>
+        <v>0.1591</v>
       </c>
       <c r="G52" t="n">
-        <v>61599.16666666666</v>
+        <v>61570.83333333334</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>62350</v>
       </c>
       <c r="C53" t="n">
-        <v>61450</v>
+        <v>62350</v>
       </c>
       <c r="D53" t="n">
         <v>62350</v>
       </c>
       <c r="E53" t="n">
-        <v>61450</v>
+        <v>62350</v>
       </c>
       <c r="F53" t="n">
-        <v>163.5817</v>
+        <v>0.2256</v>
       </c>
       <c r="G53" t="n">
-        <v>61612.5</v>
+        <v>61599.16666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>62100</v>
+        <v>62350</v>
       </c>
       <c r="C54" t="n">
-        <v>62100</v>
+        <v>61450</v>
       </c>
       <c r="D54" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="E54" t="n">
-        <v>62100</v>
+        <v>61450</v>
       </c>
       <c r="F54" t="n">
-        <v>40.1363</v>
+        <v>163.5817</v>
       </c>
       <c r="G54" t="n">
-        <v>61636.66666666666</v>
+        <v>61612.5</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="C55" t="n">
-        <v>62000</v>
+        <v>62100</v>
       </c>
       <c r="D55" t="n">
-        <v>62050</v>
+        <v>62400</v>
       </c>
       <c r="E55" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="F55" t="n">
-        <v>184.5</v>
+        <v>40.1363</v>
       </c>
       <c r="G55" t="n">
-        <v>61659.16666666666</v>
+        <v>61636.66666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="C56" t="n">
-        <v>61750</v>
+        <v>62000</v>
       </c>
       <c r="D56" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="E56" t="n">
-        <v>61750</v>
+        <v>61900</v>
       </c>
       <c r="F56" t="n">
-        <v>13.0321</v>
+        <v>184.5</v>
       </c>
       <c r="G56" t="n">
-        <v>61677.5</v>
+        <v>61659.16666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="C57" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="D57" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="E57" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>13.0321</v>
       </c>
       <c r="G57" t="n">
-        <v>61696.66666666666</v>
+        <v>61677.5</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="C58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="D58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="E58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="F58" t="n">
-        <v>5.2434</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>61720.83333333334</v>
+        <v>61696.66666666666</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="C59" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="D59" t="n">
         <v>62100</v>
       </c>
       <c r="E59" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="F59" t="n">
-        <v>145.6844</v>
+        <v>5.2434</v>
       </c>
       <c r="G59" t="n">
-        <v>61741.66666666666</v>
+        <v>61720.83333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>61750</v>
+        <v>62050</v>
       </c>
       <c r="C60" t="n">
-        <v>61700</v>
+        <v>61900</v>
       </c>
       <c r="D60" t="n">
-        <v>61750</v>
+        <v>62100</v>
       </c>
       <c r="E60" t="n">
-        <v>61700</v>
+        <v>61900</v>
       </c>
       <c r="F60" t="n">
-        <v>103</v>
+        <v>145.6844</v>
       </c>
       <c r="G60" t="n">
-        <v>61759.16666666666</v>
+        <v>61741.66666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>62000</v>
+        <v>61750</v>
       </c>
       <c r="C61" t="n">
-        <v>62000</v>
+        <v>61700</v>
       </c>
       <c r="D61" t="n">
-        <v>62000</v>
+        <v>61750</v>
       </c>
       <c r="E61" t="n">
-        <v>62000</v>
+        <v>61700</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5049</v>
+        <v>103</v>
       </c>
       <c r="G61" t="n">
-        <v>61781.66666666666</v>
+        <v>61759.16666666666</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="C62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="D62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="E62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>0.5049</v>
       </c>
       <c r="G62" t="n">
-        <v>61800.83333333334</v>
+        <v>61781.66666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="C63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="D63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="E63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="F63" t="n">
-        <v>1.8</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>61825</v>
+        <v>61800.83333333334</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>61850</v>
+        <v>62100</v>
       </c>
       <c r="C64" t="n">
         <v>62100</v>
@@ -2029,15 +2220,18 @@
         <v>62100</v>
       </c>
       <c r="E64" t="n">
-        <v>61800</v>
+        <v>62100</v>
       </c>
       <c r="F64" t="n">
-        <v>121.2541</v>
+        <v>1.8</v>
       </c>
       <c r="G64" t="n">
-        <v>61849.16666666666</v>
+        <v>61825</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62250</v>
+        <v>61850</v>
       </c>
       <c r="C65" t="n">
-        <v>62250</v>
+        <v>62100</v>
       </c>
       <c r="D65" t="n">
-        <v>62250</v>
+        <v>62100</v>
       </c>
       <c r="E65" t="n">
-        <v>62250</v>
+        <v>61800</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>121.2541</v>
       </c>
       <c r="G65" t="n">
-        <v>61875</v>
+        <v>61849.16666666666</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="C66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="D66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="E66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="F66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>61905.83333333334</v>
+        <v>61875</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>62350</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>61936.66666666666</v>
+        <v>61905.83333333334</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2139,9 +2342,12 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>61967.5</v>
+        <v>61936.66666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="C69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="D69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="E69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="F69" t="n">
-        <v>1.4583</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>61998.33333333334</v>
+        <v>61967.5</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>62300</v>
       </c>
       <c r="F70" t="n">
-        <v>3.5417</v>
+        <v>1.4583</v>
       </c>
       <c r="G70" t="n">
-        <v>62030</v>
+        <v>61998.33333333334</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>62300</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>3.5417</v>
       </c>
       <c r="G71" t="n">
-        <v>62059.16666666666</v>
+        <v>62030</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2243,9 +2458,12 @@
         <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>62090.83333333334</v>
+        <v>62059.16666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>62300</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73" t="n">
-        <v>62120.83333333334</v>
+        <v>62090.83333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>62300</v>
       </c>
       <c r="C74" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="D74" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="E74" t="n">
         <v>62300</v>
       </c>
       <c r="F74" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>62145.83333333334</v>
+        <v>62120.83333333334</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>61850</v>
+        <v>62300</v>
       </c>
       <c r="C75" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="D75" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="E75" t="n">
-        <v>61850</v>
+        <v>62300</v>
       </c>
       <c r="F75" t="n">
-        <v>15.7817</v>
+        <v>150</v>
       </c>
       <c r="G75" t="n">
-        <v>62159.16666666666</v>
+        <v>62145.83333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="C76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="D76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="E76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="F76" t="n">
-        <v>11.976</v>
+        <v>15.7817</v>
       </c>
       <c r="G76" t="n">
-        <v>62171.66666666666</v>
+        <v>62159.16666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="C77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="D77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="E77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9504</v>
+        <v>11.976</v>
       </c>
       <c r="G77" t="n">
-        <v>62188.33333333334</v>
+        <v>62171.66666666666</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="C78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="D78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="E78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="F78" t="n">
-        <v>3.3776</v>
+        <v>0.9504</v>
       </c>
       <c r="G78" t="n">
-        <v>62202.5</v>
+        <v>62188.33333333334</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="C79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="D79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="E79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="F79" t="n">
-        <v>7.1841</v>
+        <v>3.3776</v>
       </c>
       <c r="G79" t="n">
-        <v>62211.66666666666</v>
+        <v>62202.5</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="C80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="D80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="E80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="F80" t="n">
-        <v>17.3054</v>
+        <v>7.1841</v>
       </c>
       <c r="G80" t="n">
-        <v>62224.16666666666</v>
+        <v>62211.66666666666</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>62650</v>
+        <v>62400</v>
       </c>
       <c r="C81" t="n">
-        <v>62700</v>
+        <v>62400</v>
       </c>
       <c r="D81" t="n">
-        <v>62700</v>
+        <v>62400</v>
       </c>
       <c r="E81" t="n">
-        <v>62650</v>
+        <v>62400</v>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>17.3054</v>
       </c>
       <c r="G81" t="n">
-        <v>62237.5</v>
+        <v>62224.16666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>62650</v>
+      </c>
+      <c r="C82" t="n">
         <v>62700</v>
       </c>
-      <c r="C82" t="n">
-        <v>62750</v>
-      </c>
       <c r="D82" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="E82" t="n">
-        <v>62700</v>
+        <v>62650</v>
       </c>
       <c r="F82" t="n">
-        <v>18.2309</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>62250.83333333334</v>
+        <v>62237.5</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>62550</v>
+        <v>62700</v>
       </c>
       <c r="C83" t="n">
-        <v>62550</v>
+        <v>62750</v>
       </c>
       <c r="D83" t="n">
-        <v>62550</v>
+        <v>62750</v>
       </c>
       <c r="E83" t="n">
-        <v>62550</v>
+        <v>62700</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>18.2309</v>
       </c>
       <c r="G83" t="n">
-        <v>62261.66666666666</v>
+        <v>62250.83333333334</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="C84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="D84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="E84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="F84" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>62278.33333333334</v>
+        <v>62261.66666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C85" t="n">
         <v>63000</v>
@@ -2575,15 +2829,18 @@
         <v>63000</v>
       </c>
       <c r="E85" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="F85" t="n">
-        <v>83.06570000000001</v>
+        <v>4.5</v>
       </c>
       <c r="G85" t="n">
-        <v>62293.33333333334</v>
+        <v>62278.33333333334</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>62600</v>
+        <v>62950</v>
       </c>
       <c r="C86" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="D86" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="E86" t="n">
-        <v>62600</v>
+        <v>62300</v>
       </c>
       <c r="F86" t="n">
-        <v>7.5</v>
+        <v>83.06570000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>62295</v>
+        <v>62293.33333333334</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>62600</v>
       </c>
       <c r="C87" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="D87" t="n">
         <v>62600</v>
       </c>
       <c r="E87" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="F87" t="n">
-        <v>7.67</v>
+        <v>7.5</v>
       </c>
       <c r="G87" t="n">
-        <v>62291.66666666666</v>
+        <v>62295</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>62500</v>
+        <v>62600</v>
       </c>
       <c r="C88" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="D88" t="n">
-        <v>62900</v>
+        <v>62600</v>
       </c>
       <c r="E88" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F88" t="n">
-        <v>33.9</v>
+        <v>7.67</v>
       </c>
       <c r="G88" t="n">
         <v>62291.66666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="C89" t="n">
         <v>62400</v>
       </c>
       <c r="D89" t="n">
-        <v>62400</v>
+        <v>62900</v>
       </c>
       <c r="E89" t="n">
         <v>62400</v>
       </c>
       <c r="F89" t="n">
-        <v>40</v>
+        <v>33.9</v>
       </c>
       <c r="G89" t="n">
-        <v>62293.33333333334</v>
+        <v>62291.66666666666</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>62900</v>
+        <v>62400</v>
       </c>
       <c r="C90" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="D90" t="n">
-        <v>62900</v>
+        <v>62400</v>
       </c>
       <c r="E90" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="F90" t="n">
-        <v>21.3</v>
+        <v>40</v>
       </c>
       <c r="G90" t="n">
-        <v>62297.5</v>
+        <v>62293.33333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C91" t="n">
-        <v>62500</v>
+        <v>62550</v>
       </c>
       <c r="D91" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="E91" t="n">
         <v>62500</v>
       </c>
       <c r="F91" t="n">
-        <v>13.45</v>
+        <v>21.3</v>
       </c>
       <c r="G91" t="n">
-        <v>62301.66666666666</v>
+        <v>62297.5</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>62450</v>
+        <v>62800</v>
       </c>
       <c r="C92" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="D92" t="n">
-        <v>62450</v>
+        <v>62850</v>
       </c>
       <c r="E92" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="F92" t="n">
-        <v>16</v>
+        <v>13.45</v>
       </c>
       <c r="G92" t="n">
-        <v>62300.83333333334</v>
+        <v>62301.66666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="C93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="D93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="E93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" t="n">
-        <v>62310.83333333334</v>
+        <v>62300.83333333334</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>62450</v>
+        <v>63050</v>
       </c>
       <c r="C94" t="n">
-        <v>62450</v>
+        <v>63050</v>
       </c>
       <c r="D94" t="n">
         <v>63050</v>
       </c>
       <c r="E94" t="n">
-        <v>62450</v>
+        <v>63050</v>
       </c>
       <c r="F94" t="n">
-        <v>66.8172</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
         <v>62310.83333333334</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="C95" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="D95" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="E95" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="F95" t="n">
-        <v>6</v>
+        <v>66.8172</v>
       </c>
       <c r="G95" t="n">
-        <v>62320</v>
+        <v>62310.83333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="C96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="D96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="E96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="F96" t="n">
-        <v>10.8528</v>
+        <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>62320.83333333334</v>
+        <v>62320</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="C97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="D97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="E97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="F97" t="n">
-        <v>10.8259</v>
+        <v>10.8528</v>
       </c>
       <c r="G97" t="n">
         <v>62320.83333333334</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="C98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="D98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="E98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="F98" t="n">
-        <v>6.9763</v>
+        <v>10.8259</v>
       </c>
       <c r="G98" t="n">
-        <v>62330</v>
+        <v>62320.83333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="C99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="D99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="E99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="F99" t="n">
-        <v>7.9188</v>
+        <v>6.9763</v>
       </c>
       <c r="G99" t="n">
-        <v>62334.16666666666</v>
+        <v>62330</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>62450</v>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>7.9188</v>
       </c>
       <c r="G100" t="n">
-        <v>62336.66666666666</v>
+        <v>62334.16666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>62450</v>
       </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>62339.16666666666</v>
+        <v>62336.66666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>62450</v>
       </c>
       <c r="F102" t="n">
-        <v>47.6103</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>62341.66666666666</v>
+        <v>62339.16666666666</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="C103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="D103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="E103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>47.6103</v>
       </c>
       <c r="G103" t="n">
-        <v>62352.5</v>
+        <v>62341.66666666666</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3075,9 +3386,12 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>62363.33333333334</v>
+        <v>62352.5</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3101,9 +3415,12 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>62367.5</v>
+        <v>62363.33333333334</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3127,9 +3444,12 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>62371.66666666666</v>
+        <v>62367.5</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>62950</v>
       </c>
       <c r="F107" t="n">
-        <v>0.509</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>62374.16666666666</v>
+        <v>62371.66666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>62950</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01</v>
+        <v>0.509</v>
       </c>
       <c r="G108" t="n">
-        <v>62384.16666666666</v>
+        <v>62374.16666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>62950</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G109" t="n">
-        <v>62388.33333333334</v>
+        <v>62384.16666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>62600</v>
+        <v>62950</v>
       </c>
       <c r="C110" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D110" t="n">
-        <v>62600</v>
+        <v>62950</v>
       </c>
       <c r="E110" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="F110" t="n">
-        <v>332.9113</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>62386.66666666666</v>
+        <v>62388.33333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>62500</v>
+        <v>62600</v>
       </c>
       <c r="C111" t="n">
         <v>62300</v>
       </c>
       <c r="D111" t="n">
-        <v>62500</v>
+        <v>62600</v>
       </c>
       <c r="E111" t="n">
         <v>62300</v>
       </c>
       <c r="F111" t="n">
-        <v>137.1211</v>
+        <v>332.9113</v>
       </c>
       <c r="G111" t="n">
-        <v>62385.83333333334</v>
+        <v>62386.66666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="C112" t="n">
         <v>62300</v>
       </c>
       <c r="D112" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="E112" t="n">
         <v>62300</v>
       </c>
       <c r="F112" t="n">
-        <v>7.5</v>
+        <v>137.1211</v>
       </c>
       <c r="G112" t="n">
-        <v>62385</v>
+        <v>62385.83333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>62300</v>
       </c>
       <c r="F113" t="n">
-        <v>10.1298</v>
+        <v>7.5</v>
       </c>
       <c r="G113" t="n">
-        <v>62399.16666666666</v>
+        <v>62385</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>62300</v>
       </c>
       <c r="F114" t="n">
-        <v>14.7757</v>
+        <v>10.1298</v>
       </c>
       <c r="G114" t="n">
-        <v>62402.5</v>
+        <v>62399.16666666666</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="C115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="D115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="E115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="F115" t="n">
-        <v>4.5919</v>
+        <v>14.7757</v>
       </c>
       <c r="G115" t="n">
-        <v>62410.83333333334</v>
+        <v>62402.5</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>62500</v>
       </c>
       <c r="F116" t="n">
-        <v>7.5</v>
+        <v>4.5919</v>
       </c>
       <c r="G116" t="n">
-        <v>62423.33333333334</v>
+        <v>62410.83333333334</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="C117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="D117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="E117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>7.5</v>
       </c>
       <c r="G117" t="n">
-        <v>62433.33333333334</v>
+        <v>62423.33333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>62400</v>
       </c>
       <c r="F118" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G118" t="n">
-        <v>62438.33333333334</v>
+        <v>62433.33333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>62400</v>
       </c>
       <c r="F119" t="n">
-        <v>6.3243</v>
+        <v>9</v>
       </c>
       <c r="G119" t="n">
-        <v>62446.66666666666</v>
+        <v>62438.33333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3485,15 +3844,18 @@
         <v>62400</v>
       </c>
       <c r="E120" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="F120" t="n">
-        <v>159.0675</v>
+        <v>6.3243</v>
       </c>
       <c r="G120" t="n">
-        <v>62458.33333333334</v>
+        <v>62446.66666666666</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3511,15 +3873,18 @@
         <v>62400</v>
       </c>
       <c r="E121" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F121" t="n">
-        <v>7.1015</v>
+        <v>159.0675</v>
       </c>
       <c r="G121" t="n">
-        <v>62465</v>
+        <v>62458.33333333334</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="C122" t="n">
         <v>62400</v>
@@ -3537,15 +3902,18 @@
         <v>62400</v>
       </c>
       <c r="E122" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="F122" t="n">
-        <v>15</v>
+        <v>7.1015</v>
       </c>
       <c r="G122" t="n">
-        <v>62475</v>
+        <v>62465</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="C123" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="D123" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="E123" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G123" t="n">
-        <v>62478.33333333334</v>
+        <v>62475</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="C124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="D124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="E124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0452</v>
+        <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>62480</v>
+        <v>62478.33333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>62200</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2548</v>
+        <v>0.0452</v>
       </c>
       <c r="G125" t="n">
-        <v>62479.16666666666</v>
+        <v>62480</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="C126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="D126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="E126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="F126" t="n">
-        <v>1.0523</v>
+        <v>0.2548</v>
       </c>
       <c r="G126" t="n">
-        <v>62475.83333333334</v>
+        <v>62479.16666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>62000</v>
+        <v>62150</v>
       </c>
       <c r="C127" t="n">
-        <v>61800</v>
+        <v>62150</v>
       </c>
       <c r="D127" t="n">
-        <v>62000</v>
+        <v>62150</v>
       </c>
       <c r="E127" t="n">
-        <v>61800</v>
+        <v>62150</v>
       </c>
       <c r="F127" t="n">
-        <v>32.21</v>
+        <v>1.0523</v>
       </c>
       <c r="G127" t="n">
-        <v>62466.66666666666</v>
+        <v>62475.83333333334</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>62000</v>
       </c>
       <c r="C128" t="n">
-        <v>62000</v>
+        <v>61800</v>
       </c>
       <c r="D128" t="n">
         <v>62000</v>
       </c>
       <c r="E128" t="n">
-        <v>62000</v>
+        <v>61800</v>
       </c>
       <c r="F128" t="n">
-        <v>7.5</v>
+        <v>32.21</v>
       </c>
       <c r="G128" t="n">
-        <v>62460.83333333334</v>
+        <v>62466.66666666666</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3725,9 +4111,12 @@
         <v>7.5</v>
       </c>
       <c r="G129" t="n">
-        <v>62455.83333333334</v>
+        <v>62460.83333333334</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>62000</v>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G130" t="n">
-        <v>62450.83333333334</v>
+        <v>62455.83333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="C131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="D131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="E131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="F131" t="n">
-        <v>5.5015</v>
+        <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>62445</v>
+        <v>62450.83333333334</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="C132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="D132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="E132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="F132" t="n">
-        <v>1.995</v>
+        <v>5.5015</v>
       </c>
       <c r="G132" t="n">
-        <v>62435</v>
+        <v>62445</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="C133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="D133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="E133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="F133" t="n">
-        <v>4.5283</v>
+        <v>1.995</v>
       </c>
       <c r="G133" t="n">
-        <v>62424.16666666666</v>
+        <v>62435</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="C134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="D134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="E134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="F134" t="n">
-        <v>10.826</v>
+        <v>4.5283</v>
       </c>
       <c r="G134" t="n">
-        <v>62410.83333333334</v>
+        <v>62424.16666666666</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="C135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="D135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="E135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="F135" t="n">
-        <v>8.1426</v>
+        <v>10.826</v>
       </c>
       <c r="G135" t="n">
-        <v>62407.5</v>
+        <v>62410.83333333334</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="C136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="D136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="E136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="F136" t="n">
-        <v>7.5</v>
+        <v>8.1426</v>
       </c>
       <c r="G136" t="n">
-        <v>62405.83333333334</v>
+        <v>62407.5</v>
       </c>
       <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>61700</v>
       </c>
       <c r="F137" t="n">
-        <v>8.8405</v>
+        <v>7.5</v>
       </c>
       <c r="G137" t="n">
-        <v>62399.16666666666</v>
+        <v>62405.83333333334</v>
       </c>
       <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="C138" t="n">
-        <v>61950</v>
+        <v>61700</v>
       </c>
       <c r="D138" t="n">
-        <v>61950</v>
+        <v>61700</v>
       </c>
       <c r="E138" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="F138" t="n">
-        <v>7.705896607431</v>
+        <v>8.8405</v>
       </c>
       <c r="G138" t="n">
-        <v>62395</v>
+        <v>62399.16666666666</v>
       </c>
       <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>61900</v>
       </c>
       <c r="C139" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D139" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E139" t="n">
         <v>61900</v>
       </c>
       <c r="F139" t="n">
-        <v>1.2716</v>
+        <v>7.705896607431</v>
       </c>
       <c r="G139" t="n">
-        <v>62387.5</v>
+        <v>62395</v>
       </c>
       <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="C140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="D140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="E140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="F140" t="n">
-        <v>7.582703392569</v>
+        <v>1.2716</v>
       </c>
       <c r="G140" t="n">
-        <v>62380</v>
+        <v>62387.5</v>
       </c>
       <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="C141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="D141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="E141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2</v>
+        <v>7.582703392569</v>
       </c>
       <c r="G141" t="n">
-        <v>62370.83333333334</v>
+        <v>62380</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>62150</v>
       </c>
       <c r="C142" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="D142" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="E142" t="n">
         <v>62150</v>
       </c>
       <c r="F142" t="n">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="n">
-        <v>62361.66666666666</v>
+        <v>62370.83333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,7 +4502,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="C143" t="n">
         <v>62200</v>
@@ -4083,15 +4511,18 @@
         <v>62200</v>
       </c>
       <c r="E143" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="F143" t="n">
-        <v>0.98</v>
+        <v>40</v>
       </c>
       <c r="G143" t="n">
-        <v>62355.83333333334</v>
+        <v>62361.66666666666</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>62200</v>
       </c>
       <c r="F144" t="n">
-        <v>5</v>
+        <v>0.98</v>
       </c>
       <c r="G144" t="n">
-        <v>62342.5</v>
+        <v>62355.83333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="C145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="D145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="E145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="F145" t="n">
-        <v>23.770996607431</v>
+        <v>5</v>
       </c>
       <c r="G145" t="n">
-        <v>62325</v>
+        <v>62342.5</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="C146" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="D146" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="E146" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="F146" t="n">
-        <v>77.13200000000001</v>
+        <v>23.770996607431</v>
       </c>
       <c r="G146" t="n">
-        <v>62321.66666666666</v>
+        <v>62325</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="C147" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="D147" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="E147" t="n">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="F147" t="n">
-        <v>100</v>
+        <v>77.13200000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>62325</v>
+        <v>62321.66666666666</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="C148" t="n">
-        <v>62800</v>
+        <v>62500</v>
       </c>
       <c r="D148" t="n">
-        <v>62800</v>
+        <v>62500</v>
       </c>
       <c r="E148" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="F148" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G148" t="n">
-        <v>62331.66666666666</v>
+        <v>62325</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="C149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="D149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="E149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="F149" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G149" t="n">
-        <v>62339.16666666666</v>
+        <v>62331.66666666666</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="C150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="D150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="E150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="F150" t="n">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="G150" t="n">
-        <v>62345.83333333334</v>
+        <v>62339.16666666666</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>62950</v>
       </c>
       <c r="F151" t="n">
-        <v>72.5</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
-        <v>62353.33333333334</v>
+        <v>62345.83333333334</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C152" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="D152" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="E152" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F152" t="n">
-        <v>23</v>
+        <v>72.5</v>
       </c>
       <c r="G152" t="n">
-        <v>62364.16666666666</v>
+        <v>62353.33333333334</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C153" t="n">
         <v>63100</v>
       </c>
-      <c r="C153" t="n">
-        <v>63300</v>
-      </c>
       <c r="D153" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="E153" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F153" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G153" t="n">
-        <v>62368.33333333334</v>
+        <v>62364.16666666666</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4821,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="C154" t="n">
         <v>63300</v>
@@ -4369,15 +4830,18 @@
         <v>63300</v>
       </c>
       <c r="E154" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="F154" t="n">
-        <v>1.9746</v>
+        <v>100</v>
       </c>
       <c r="G154" t="n">
-        <v>62382.5</v>
+        <v>62368.33333333334</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="C155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="D155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="F155" t="n">
-        <v>7.7075</v>
+        <v>1.9746</v>
       </c>
       <c r="G155" t="n">
-        <v>62390</v>
+        <v>62382.5</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,13 +4891,16 @@
         <v>63400</v>
       </c>
       <c r="F156" t="n">
+        <v>7.7075</v>
+      </c>
+      <c r="G156" t="n">
+        <v>62390</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>1</v>
-      </c>
-      <c r="G156" t="n">
-        <v>62405.83333333334</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4450,13 +4920,16 @@
         <v>63400</v>
       </c>
       <c r="F157" t="n">
-        <v>13.2522</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>62422.5</v>
+        <v>62405.83333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4476,12 +4949,15 @@
         <v>63400</v>
       </c>
       <c r="F158" t="n">
-        <v>2.8422</v>
+        <v>13.2522</v>
       </c>
       <c r="G158" t="n">
-        <v>62436.66666666666</v>
+        <v>62422.5</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="C159" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="D159" t="n">
-        <v>63450</v>
+        <v>63400</v>
       </c>
       <c r="E159" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="F159" t="n">
-        <v>26.155</v>
+        <v>2.8422</v>
       </c>
       <c r="G159" t="n">
-        <v>62450.83333333334</v>
+        <v>62436.66666666666</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4522,18 +5001,21 @@
         <v>63300</v>
       </c>
       <c r="D160" t="n">
-        <v>63300</v>
+        <v>63450</v>
       </c>
       <c r="E160" t="n">
         <v>63300</v>
       </c>
       <c r="F160" t="n">
-        <v>1.0963</v>
+        <v>26.155</v>
       </c>
       <c r="G160" t="n">
-        <v>62465</v>
+        <v>62450.83333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>63300</v>
       </c>
       <c r="F161" t="n">
-        <v>3.1237</v>
+        <v>1.0963</v>
       </c>
       <c r="G161" t="n">
-        <v>62479.16666666666</v>
+        <v>62465</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>63300</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7</v>
+        <v>3.1237</v>
       </c>
       <c r="G162" t="n">
-        <v>62493.33333333334</v>
+        <v>62479.16666666666</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>63300</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9173</v>
+        <v>0.7</v>
       </c>
       <c r="G163" t="n">
-        <v>62499.16666666666</v>
+        <v>62493.33333333334</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="C164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="D164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="E164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="F164" t="n">
-        <v>6.009</v>
+        <v>0.9173</v>
       </c>
       <c r="G164" t="n">
-        <v>62507.5</v>
+        <v>62499.16666666666</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="C165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="D165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="E165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="F165" t="n">
-        <v>33.5</v>
+        <v>6.009</v>
       </c>
       <c r="G165" t="n">
-        <v>62515</v>
+        <v>62507.5</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="C166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="D166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="F166" t="n">
-        <v>2.8351</v>
+        <v>33.5</v>
       </c>
       <c r="G166" t="n">
-        <v>62520.83333333334</v>
+        <v>62515</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>63300</v>
       </c>
       <c r="F167" t="n">
-        <v>6.009</v>
+        <v>2.8351</v>
       </c>
       <c r="G167" t="n">
-        <v>62526.66666666666</v>
+        <v>62520.83333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="C168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="D168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4468</v>
+        <v>6.009</v>
       </c>
       <c r="G168" t="n">
-        <v>62534.16666666666</v>
+        <v>62526.66666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,532 +5268,15 @@
         <v>63400</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1516</v>
+        <v>0.4468</v>
       </c>
       <c r="G169" t="n">
-        <v>62541.66666666666</v>
+        <v>62534.16666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C170" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D170" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E170" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1.1025</v>
-      </c>
-      <c r="G170" t="n">
-        <v>62560</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C171" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D171" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E171" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F171" t="n">
-        <v>100</v>
-      </c>
-      <c r="G171" t="n">
-        <v>62580</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="D172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F172" t="n">
-        <v>11.212</v>
-      </c>
-      <c r="G172" t="n">
-        <v>62599.16666666666</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>63100</v>
-      </c>
-      <c r="C173" t="n">
-        <v>63050</v>
-      </c>
-      <c r="D173" t="n">
-        <v>63100</v>
-      </c>
-      <c r="E173" t="n">
-        <v>63050</v>
-      </c>
-      <c r="F173" t="n">
-        <v>89.836</v>
-      </c>
-      <c r="G173" t="n">
-        <v>62611.66666666666</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.1837</v>
-      </c>
-      <c r="G174" t="n">
-        <v>62621.66666666666</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C175" t="n">
-        <v>63000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E175" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F175" t="n">
-        <v>14.0943</v>
-      </c>
-      <c r="G175" t="n">
-        <v>62630</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="C176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="D176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="E176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2.3363</v>
-      </c>
-      <c r="G176" t="n">
-        <v>62627.5</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="D177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="E177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3.5577</v>
-      </c>
-      <c r="G177" t="n">
-        <v>62630.83333333334</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C178" t="n">
-        <v>62650</v>
-      </c>
-      <c r="D178" t="n">
-        <v>62650</v>
-      </c>
-      <c r="E178" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4.5111</v>
-      </c>
-      <c r="G178" t="n">
-        <v>62635</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="C179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="D179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="E179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G179" t="n">
-        <v>62631.66666666666</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="C180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="D180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="E180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="F180" t="n">
-        <v>20</v>
-      </c>
-      <c r="G180" t="n">
-        <v>62625</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="C181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="D181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="E181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="F181" t="n">
-        <v>7.4985</v>
-      </c>
-      <c r="G181" t="n">
-        <v>62618.33333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="C182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>62610.83333333334</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>61750</v>
-      </c>
-      <c r="C183" t="n">
-        <v>61700</v>
-      </c>
-      <c r="D183" t="n">
-        <v>61750</v>
-      </c>
-      <c r="E183" t="n">
-        <v>61700</v>
-      </c>
-      <c r="F183" t="n">
-        <v>12.9572</v>
-      </c>
-      <c r="G183" t="n">
-        <v>62600.83333333334</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="C184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="D184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="E184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="F184" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="G184" t="n">
-        <v>62594.16666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="C185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="D185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="E185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G185" t="n">
-        <v>62584.16666666666</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>61350</v>
-      </c>
-      <c r="C186" t="n">
-        <v>61350</v>
-      </c>
-      <c r="D186" t="n">
-        <v>61350</v>
-      </c>
-      <c r="E186" t="n">
-        <v>61300</v>
-      </c>
-      <c r="F186" t="n">
-        <v>13.7022</v>
-      </c>
-      <c r="G186" t="n">
-        <v>62570.83333333334</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>61300</v>
-      </c>
-      <c r="C187" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D187" t="n">
-        <v>61300</v>
-      </c>
-      <c r="E187" t="n">
-        <v>61200</v>
-      </c>
-      <c r="F187" t="n">
-        <v>5.3902</v>
-      </c>
-      <c r="G187" t="n">
-        <v>62560.83333333334</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="G188" t="n">
-        <v>62546.66666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C189" t="n">
-        <v>61250</v>
-      </c>
-      <c r="D189" t="n">
-        <v>61250</v>
-      </c>
-      <c r="E189" t="n">
-        <v>61050</v>
-      </c>
-      <c r="F189" t="n">
-        <v>44.529</v>
-      </c>
-      <c r="G189" t="n">
-        <v>62534.16666666666</v>
-      </c>
-      <c r="H189" t="n">
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
